--- a/bdo-resources.xlsx
+++ b/bdo-resources.xlsx
@@ -14,12 +14,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="76">
+  <si>
+    <t>1458690439791251467</t>
+  </si>
+  <si>
+    <t>bdo-resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pvp dmg calc </t>
+  </si>
+  <si>
+    <t>1421285428396425277</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cross comm guide</t>
+  </si>
+  <si>
+    <t>1406978880136286219</t>
+  </si>
+  <si>
+    <t>New armour calc</t>
+  </si>
+  <si>
+    <t>1406857078886109184</t>
+  </si>
+  <si>
+    <t>Edania cheat sheet</t>
+  </si>
   <si>
     <t>1395863403888644219</t>
-  </si>
-  <si>
-    <t>bdo-resources</t>
   </si>
   <si>
     <t xml:space="preserve"> khara formula</t>
@@ -219,12 +243,6 @@
   </si>
   <si>
     <t xml:space="preserve"> COOKING</t>
-  </si>
-  <si>
-    <t>1180371992252264488</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Olun Elixir</t>
   </si>
 </sst>
 </file>
@@ -556,7 +574,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -591,49 +609,49 @@
       <c r="B3" t="s">
         <v>1</v>
       </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -942,6 +960,39 @@
       </c>
       <c r="C35" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/bdo-resources.xlsx
+++ b/bdo-resources.xlsx
@@ -14,12 +14,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="84">
+  <si>
+    <t>1464391913086914632</t>
+  </si>
+  <si>
+    <t>bdo-resources</t>
+  </si>
+  <si>
+    <t>horse tame quest</t>
+  </si>
+  <si>
+    <t>1460088672039731368</t>
+  </si>
+  <si>
+    <t>base scouting</t>
+  </si>
+  <si>
+    <t>1459802308153184391</t>
+  </si>
+  <si>
+    <t>musa awk guide for pve</t>
+  </si>
+  <si>
+    <t>1459277681672851614</t>
+  </si>
+  <si>
+    <t>basic t2 elixirs and buff</t>
+  </si>
+  <si>
+    <t>1458990005174276198</t>
+  </si>
+  <si>
+    <t>professor partykats awk striker guide</t>
+  </si>
+  <si>
+    <t>1458869759843111232</t>
+  </si>
+  <si>
+    <t>joe's t2 crystals</t>
+  </si>
   <si>
     <t>1458690439791251467</t>
-  </si>
-  <si>
-    <t>bdo-resources</t>
   </si>
   <si>
     <t xml:space="preserve">pvp dmg calc </t>
@@ -83,18 +119,6 @@
     <t>Basic Ele guide</t>
   </si>
   <si>
-    <t>1355704326584275097</t>
-  </si>
-  <si>
-    <t>Crystal Sets - Tide</t>
-  </si>
-  <si>
-    <t>1355703889613160449</t>
-  </si>
-  <si>
-    <t>T2 Set</t>
-  </si>
-  <si>
     <t>1355702054634651850</t>
   </si>
   <si>
@@ -164,7 +188,7 @@
     <t>1277063802436980760</t>
   </si>
   <si>
-    <t>pvp elixirs</t>
+    <t>cheap pvp elixirs</t>
   </si>
   <si>
     <t>1266133697980141588</t>
@@ -574,7 +598,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -653,71 +677,71 @@
       <c r="B7" t="s">
         <v>1</v>
       </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -993,6 +1017,50 @@
       </c>
       <c r="C38" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
